--- a/ModelsDiagram.xlsx
+++ b/ModelsDiagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Random files\Germany\Essen\Education\GeekBrains\Quarter 2\ASP.NET Core\Homework\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7347AFAE-F8E3-44CE-9910-84FE8141C5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8BA03-8CEB-4F7B-AFF6-6E39E9B9F3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDC4F084-074F-41C3-AA48-190B8DF4B394}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Customers</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -74,18 +71,12 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Contract</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>WorkHours</t>
   </si>
   <si>
-    <t>Invoiced</t>
-  </si>
-  <si>
     <t>Invoices</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>IsPaid</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <t>TakeTasksDateFrom</t>
   </si>
   <si>
@@ -148,6 +136,110 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>InvoiceId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF319EAD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contract</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF319EAD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>ContractId</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
   </si>
 </sst>
 </file>
@@ -209,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -262,11 +354,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -274,6 +379,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,16 +568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586153</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -484,9 +591,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6308481" y="696058"/>
-          <a:ext cx="1223596" cy="197827"/>
+        <a:xfrm flipH="1">
+          <a:off x="5912827" y="886558"/>
+          <a:ext cx="1194288" cy="593480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -812,14 +919,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEEDAEB-8C8C-49C4-B41B-F0BB0E23577F}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -833,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -853,83 +962,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="3" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
